--- a/fias_loader/TESTS/Y_BUILD/_TEST_00_skver.xlsx
+++ b/fias_loader/TESTS/Y_BUILD/_TEST_00_skver.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="_TEST_00_skver-Дороги с улицами, что интересно" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Улицы + дома" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Подмножество улицы + дома." sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Дома" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="167">
   <si>
     <t xml:space="preserve">id_area</t>
   </si>
@@ -375,12 +376,27 @@
     <t xml:space="preserve">ac898ec9-de94-4546-b32c-c15599b1e329</t>
   </si>
   <si>
+    <t xml:space="preserve">'bd1ea5b8-d375-4afd-a9e4-a40566b6fed8'|2087845|'671-й'|141|'км'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'f27cd60e-46d5-4747-bc68-1789c456003c'|528270171|'103-й'|141|'км'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'761a72d8-8616-4b47-ae6a-1589877d5fc2'|528270161|'94-й'|141|'км'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'84fdfa94-5809-4675-9205-e32cce7b79e3'|528270165|'97-й'|141|'км'</t>
+  </si>
+  <si>
     <t xml:space="preserve">стр. 1</t>
   </si>
   <si>
     <t xml:space="preserve">a7c1e443-fd44-4261-bb36-0e54b658f95d</t>
   </si>
   <si>
+    <t xml:space="preserve">'eb20028e-a05e-44dc-b1b6-65ecf0770a6a'|528270167|'99-й'|141|'км'</t>
+  </si>
+  <si>
     <t xml:space="preserve">стр. 2</t>
   </si>
   <si>
@@ -406,6 +422,108 @@
   </si>
   <si>
     <t xml:space="preserve">1f6c7dbc-2ee7-44bf-8095-a6a827d8ca06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_addr_parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nm_fias_guid_parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nm_parent_obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent_type_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent_type_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent_type_shortname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent_level_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent_level_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent_short_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_num1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_num2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house_type_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house_type_shortname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_type1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_type1_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_type1_shortname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_type2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_type2_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_type2_shortname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oper_type_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oper_type_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Километр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">км</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элемент улично-дорожной сети</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стр.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сооружение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">соор.</t>
   </si>
 </sst>
 </file>
@@ -420,6 +538,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -583,8 +702,8 @@
   </sheetPr>
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="4:6 D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="D2:D8 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -592,9 +711,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="77.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="77.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.16"/>
@@ -1905,8 +2024,8 @@
   </sheetPr>
   <dimension ref="A1:AT103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF54" activeCellId="1" sqref="4:6 AF54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF54" activeCellId="1" sqref="D2:D8 AF54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1914,9 +2033,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="77.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="77.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.16"/>
@@ -6626,8 +6745,8 @@
       <c r="AE54" s="1" t="n">
         <v>2600004232</v>
       </c>
-      <c r="AF54" s="1" t="n">
-        <v>2</v>
+      <c r="AF54" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="AG54" s="1" t="n">
         <v>1</v>
@@ -6712,8 +6831,8 @@
       <c r="AE55" s="0" t="n">
         <v>2600004237</v>
       </c>
-      <c r="AF55" s="0" t="n">
-        <v>1</v>
+      <c r="AF55" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="AG55" s="0" t="n">
         <v>5</v>
@@ -6798,8 +6917,8 @@
       <c r="AE56" s="0" t="n">
         <v>2600004237</v>
       </c>
-      <c r="AF56" s="0" t="n">
-        <v>1</v>
+      <c r="AF56" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="AG56" s="0" t="n">
         <v>5</v>
@@ -6884,20 +7003,20 @@
       <c r="AE57" s="2" t="n">
         <v>4600006243</v>
       </c>
-      <c r="AF57" s="2" t="n">
-        <v>5</v>
+      <c r="AF57" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="AG57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AM57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AN57" s="2" t="n">
         <v>41648443</v>
       </c>
       <c r="AO57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AR57" s="2" t="n">
         <v>41248000000</v>
@@ -6961,20 +7080,20 @@
       <c r="AE58" s="2" t="n">
         <v>4600006243</v>
       </c>
-      <c r="AF58" s="2" t="n">
-        <v>5</v>
+      <c r="AF58" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="AG58" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AM58" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AN58" s="2" t="n">
         <v>41648443</v>
       </c>
       <c r="AO58" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AR58" s="2" t="n">
         <v>41248000000</v>
@@ -7045,13 +7164,13 @@
         <v>3</v>
       </c>
       <c r="AM59" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AN59" s="2" t="n">
         <v>41648443</v>
       </c>
       <c r="AO59" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AR59" s="2" t="n">
         <v>41248000000</v>
@@ -7125,13 +7244,13 @@
         <v>1</v>
       </c>
       <c r="AM60" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN60" s="1" t="n">
         <v>41630408</v>
       </c>
       <c r="AO60" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR60" s="1" t="n">
         <v>41230000102</v>
@@ -7205,13 +7324,13 @@
         <v>1</v>
       </c>
       <c r="AM61" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN61" s="1" t="n">
         <v>41630408</v>
       </c>
       <c r="AO61" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR61" s="1" t="n">
         <v>41230000102</v>
@@ -7285,13 +7404,13 @@
         <v>1</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN62" s="1" t="n">
         <v>41630408</v>
       </c>
       <c r="AO62" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR62" s="1" t="n">
         <v>41230000102</v>
@@ -7365,13 +7484,13 @@
         <v>1</v>
       </c>
       <c r="AM63" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN63" s="1" t="n">
         <v>41630408</v>
       </c>
       <c r="AO63" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR63" s="1" t="n">
         <v>41230000102</v>
@@ -7445,13 +7564,13 @@
         <v>1</v>
       </c>
       <c r="AM64" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN64" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO64" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR64" s="0" t="n">
         <v>41230000102</v>
@@ -7525,13 +7644,13 @@
         <v>1</v>
       </c>
       <c r="AM65" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN65" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO65" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR65" s="0" t="n">
         <v>41230000102</v>
@@ -7605,13 +7724,13 @@
         <v>1</v>
       </c>
       <c r="AM66" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN66" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO66" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR66" s="0" t="n">
         <v>41230000102</v>
@@ -7685,13 +7804,13 @@
         <v>1</v>
       </c>
       <c r="AM67" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN67" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO67" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR67" s="0" t="n">
         <v>41230000102</v>
@@ -7765,13 +7884,13 @@
         <v>1</v>
       </c>
       <c r="AM68" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN68" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO68" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR68" s="0" t="n">
         <v>41230000102</v>
@@ -7845,13 +7964,13 @@
         <v>1</v>
       </c>
       <c r="AM69" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN69" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO69" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR69" s="0" t="n">
         <v>41230000102</v>
@@ -7925,13 +8044,13 @@
         <v>1</v>
       </c>
       <c r="AM70" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN70" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO70" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR70" s="0" t="n">
         <v>41230000102</v>
@@ -8005,13 +8124,13 @@
         <v>1</v>
       </c>
       <c r="AM71" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN71" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO71" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR71" s="0" t="n">
         <v>41230000102</v>
@@ -8085,13 +8204,13 @@
         <v>1</v>
       </c>
       <c r="AM72" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN72" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO72" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR72" s="0" t="n">
         <v>41230000102</v>
@@ -8165,13 +8284,13 @@
         <v>1</v>
       </c>
       <c r="AM73" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN73" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO73" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR73" s="0" t="n">
         <v>41230000102</v>
@@ -8245,13 +8364,13 @@
         <v>1</v>
       </c>
       <c r="AM74" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN74" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO74" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR74" s="0" t="n">
         <v>41230000102</v>
@@ -8325,13 +8444,13 @@
         <v>1</v>
       </c>
       <c r="AM75" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN75" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO75" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR75" s="0" t="n">
         <v>41230000102</v>
@@ -8405,13 +8524,13 @@
         <v>1</v>
       </c>
       <c r="AM76" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN76" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO76" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR76" s="0" t="n">
         <v>41230000102</v>
@@ -8485,13 +8604,13 @@
         <v>1</v>
       </c>
       <c r="AM77" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN77" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO77" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR77" s="0" t="n">
         <v>41230000102</v>
@@ -8565,13 +8684,13 @@
         <v>1</v>
       </c>
       <c r="AM78" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN78" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO78" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR78" s="0" t="n">
         <v>41230000102</v>
@@ -8645,13 +8764,13 @@
         <v>1</v>
       </c>
       <c r="AM79" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN79" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO79" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR79" s="0" t="n">
         <v>41230000102</v>
@@ -8725,13 +8844,13 @@
         <v>1</v>
       </c>
       <c r="AM80" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN80" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO80" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR80" s="0" t="n">
         <v>41230000102</v>
@@ -8805,13 +8924,13 @@
         <v>1</v>
       </c>
       <c r="AM81" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN81" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO81" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR81" s="0" t="n">
         <v>41230000102</v>
@@ -8885,13 +9004,13 @@
         <v>1</v>
       </c>
       <c r="AM82" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN82" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO82" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR82" s="0" t="n">
         <v>41230000102</v>
@@ -8965,13 +9084,13 @@
         <v>1</v>
       </c>
       <c r="AM83" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN83" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO83" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR83" s="0" t="n">
         <v>41230000102</v>
@@ -9045,13 +9164,13 @@
         <v>1</v>
       </c>
       <c r="AM84" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN84" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO84" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR84" s="0" t="n">
         <v>41230000102</v>
@@ -9125,13 +9244,13 @@
         <v>1</v>
       </c>
       <c r="AM85" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN85" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO85" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR85" s="0" t="n">
         <v>41230000102</v>
@@ -9205,13 +9324,13 @@
         <v>1</v>
       </c>
       <c r="AM86" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN86" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO86" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR86" s="0" t="n">
         <v>41230000102</v>
@@ -9285,13 +9404,13 @@
         <v>1</v>
       </c>
       <c r="AM87" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN87" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO87" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR87" s="0" t="n">
         <v>41230000102</v>
@@ -9365,13 +9484,13 @@
         <v>1</v>
       </c>
       <c r="AM88" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN88" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO88" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR88" s="0" t="n">
         <v>41230000102</v>
@@ -9445,13 +9564,13 @@
         <v>1</v>
       </c>
       <c r="AM89" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN89" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO89" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR89" s="0" t="n">
         <v>41230000102</v>
@@ -9525,13 +9644,13 @@
         <v>1</v>
       </c>
       <c r="AM90" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN90" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO90" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR90" s="0" t="n">
         <v>41230000102</v>
@@ -9605,13 +9724,13 @@
         <v>1</v>
       </c>
       <c r="AM91" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN91" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO91" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR91" s="0" t="n">
         <v>41230000102</v>
@@ -9685,13 +9804,13 @@
         <v>1</v>
       </c>
       <c r="AM92" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN92" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO92" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR92" s="0" t="n">
         <v>41230000102</v>
@@ -9765,13 +9884,13 @@
         <v>1</v>
       </c>
       <c r="AM93" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN93" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO93" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR93" s="0" t="n">
         <v>41230000102</v>
@@ -9845,13 +9964,13 @@
         <v>1</v>
       </c>
       <c r="AM94" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN94" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO94" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR94" s="0" t="n">
         <v>41230000102</v>
@@ -9925,13 +10044,13 @@
         <v>1</v>
       </c>
       <c r="AM95" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN95" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO95" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR95" s="0" t="n">
         <v>41230000102</v>
@@ -10005,13 +10124,13 @@
         <v>1</v>
       </c>
       <c r="AM96" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN96" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO96" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR96" s="0" t="n">
         <v>41230000102</v>
@@ -10085,13 +10204,13 @@
         <v>1</v>
       </c>
       <c r="AM97" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN97" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO97" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR97" s="0" t="n">
         <v>41230000102</v>
@@ -10165,13 +10284,13 @@
         <v>1</v>
       </c>
       <c r="AM98" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN98" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO98" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR98" s="0" t="n">
         <v>41230000102</v>
@@ -10245,13 +10364,13 @@
         <v>1</v>
       </c>
       <c r="AM99" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN99" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO99" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR99" s="0" t="n">
         <v>41230000102</v>
@@ -10325,13 +10444,13 @@
         <v>1</v>
       </c>
       <c r="AM100" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN100" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO100" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AR100" s="0" t="n">
         <v>41230000102</v>
@@ -10405,13 +10524,13 @@
         <v>1</v>
       </c>
       <c r="AM101" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN101" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO101" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR101" s="0" t="n">
         <v>41230000102</v>
@@ -10485,13 +10604,13 @@
         <v>1</v>
       </c>
       <c r="AM102" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN102" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO102" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AR102" s="0" t="n">
         <v>41230000102</v>
@@ -10565,13 +10684,13 @@
         <v>1</v>
       </c>
       <c r="AM103" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN103" s="0" t="n">
         <v>41630408</v>
       </c>
       <c r="AO103" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR103" s="0" t="n">
         <v>41230000102</v>
@@ -10580,7 +10699,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -10595,8 +10714,8 @@
   </sheetPr>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W6" activeCellId="0" sqref="4:6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="D2:D8 F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10604,9 +10723,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="77.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="77.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.16"/>
@@ -11131,13 +11250,13 @@
         <v>1</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC7" s="2" t="n">
         <v>41648443</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AG7" s="2" t="n">
         <v>41248000000</v>
@@ -11190,13 +11309,13 @@
         <v>2</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>41648443</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>41248000000</v>
@@ -11249,13 +11368,13 @@
         <v>3</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC9" s="2" t="n">
         <v>41648443</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AG9" s="2" t="n">
         <v>41248000000</v>
@@ -11311,13 +11430,13 @@
         <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AC10" s="1" t="n">
         <v>41630408</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AG10" s="1" t="n">
         <v>41230000102</v>
@@ -11373,13 +11492,13 @@
         <v>1</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AC11" s="1" t="n">
         <v>41630408</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AG11" s="1" t="n">
         <v>41230000102</v>
@@ -11435,13 +11554,13 @@
         <v>1</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AC12" s="1" t="n">
         <v>41630408</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AG12" s="1" t="n">
         <v>41230000102</v>
@@ -11497,13 +11616,13 @@
         <v>1</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AC13" s="1" t="n">
         <v>41630408</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AG13" s="1" t="n">
         <v>41230000102</v>
@@ -11512,7 +11631,563 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AC8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="34.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>95882794</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>794220</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>41648443</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>41248000000</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>54965687</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>794220</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>41648443</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>41248000000</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>54966760</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>794220</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>41648443</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>41248000000</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>160345524</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>160330043</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>41630408</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>41230000102</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>160345534</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>160330033</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>41630408</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>41230000102</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>160345556</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>160330037</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>41630408</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>41230000102</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>160345575</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>160330039</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>41630408</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>41230000102</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
